--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3303557.535827966</v>
+        <v>-3304297.998648691</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.461174037876646</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>62.29404031717141</v>
       </c>
       <c r="H11" t="n">
         <v>202.6210018711096</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874612</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>89.1834140824707</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C12" t="n">
         <v>40.99189795560312</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192614</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268833</v>
       </c>
       <c r="F12" t="n">
-        <v>45.80807959207819</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115071</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>54.52870250319005</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>34.98135294622706</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0829306929842</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U12" t="n">
         <v>225.9237248774628</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>28.13781900231831</v>
       </c>
       <c r="H14" t="n">
         <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>27.42664121820138</v>
+        <v>59.42064602642677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874615</v>
+        <v>65.8728397687461</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247073</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715475</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560315</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8177383877123</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,7 +1701,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
         <v>80.15602968011626</v>
@@ -1734,13 +1734,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622708</v>
+        <v>34.98135294622706</v>
       </c>
       <c r="T15" t="n">
-        <v>151.3823692442747</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U15" t="n">
-        <v>94.2071238447502</v>
+        <v>94.20712384475017</v>
       </c>
       <c r="V15" t="n">
         <v>101.0839861167127</v>
@@ -1749,10 +1749,10 @@
         <v>119.978382128207</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076489</v>
+        <v>74.05638417076486</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459177</v>
+        <v>73.96609474459174</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549977</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437367</v>
+        <v>35.45957938437364</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529493</v>
+        <v>88.3787084052949</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="17">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>86.59513888805466</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0.01667514694318015</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7659706229939</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.66691378543844</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>14.7581540977101</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>229.5763935189054</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>40.607345894636</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>71.89678267008031</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>102.9818218891246</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>35.01183638550108</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>26.86781892178278</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011626</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>43.94545883940438</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>113.1122544509811</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>48.92726692662036</v>
       </c>
       <c r="V25" t="n">
-        <v>195.1910385061425</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W25" t="n">
         <v>49.1435091104731</v>
@@ -2555,10 +2555,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C26" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D26" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
         <v>231.8863097938098</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068741</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300675</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U26" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
         <v>177.7081981916829</v>
@@ -2618,7 +2618,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
         <v>236.1938783776016</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>79.03062158184434</v>
       </c>
       <c r="G27" t="n">
-        <v>3.849439786796155</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.6979539789397</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0829306929842</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901081</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>101.6509228824676</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.63863549885238</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454193</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955554</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
         <v>102.093583045376</v>
@@ -2776,10 +2776,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2792,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D29" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E29" t="n">
         <v>231.8863097938098</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300672</v>
+        <v>47.54538052300675</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591581</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916829</v>
@@ -2855,7 +2855,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y29" t="n">
         <v>236.1938783776016</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048767</v>
+        <v>16.6538937004877</v>
       </c>
       <c r="T30" t="n">
-        <v>49.0388704145322</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U30" t="n">
         <v>159.8851340659232</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017583</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863427</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955554</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U31" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V31" t="n">
         <v>102.093583045376</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300672</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T32" t="n">
         <v>70.85595483673131</v>
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>85.4899535513464</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>7.601020176948936</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6979539789397</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0829306929842</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9237248774628</v>
+        <v>159.8851340659232</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3348,13 +3348,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>15.23217334976571</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>23.79712696323131</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.66119193167342</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>48.92726692662036</v>
       </c>
       <c r="V37" t="n">
-        <v>195.1910385061425</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W37" t="n">
         <v>49.1435091104731</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3585,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>15.23217334976571</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>23.79712696323018</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>35.01183638550108</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>33.99892176186332</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771005</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047305</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3819,25 +3819,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>146.2741151268216</v>
+        <v>209.6502442602029</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>30.79496804573628</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.1006484492992</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1006484492993</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>6.084173352475625</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>75.12738311477071</v>
+        <v>155.283412794887</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>120.1006484492992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.1006484492993</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475625</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>816.9818431753727</v>
+        <v>635.9845463908091</v>
       </c>
       <c r="C11" t="n">
-        <v>581.0663979851757</v>
+        <v>635.9845463908091</v>
       </c>
       <c r="D11" t="n">
-        <v>581.0663979851757</v>
+        <v>635.9845463908091</v>
       </c>
       <c r="E11" t="n">
-        <v>581.0663979851757</v>
+        <v>635.9845463908091</v>
       </c>
       <c r="F11" t="n">
-        <v>581.0663979851757</v>
+        <v>358.0457133514163</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037687</v>
+        <v>295.1224403037684</v>
       </c>
       <c r="H11" t="n">
         <v>90.45476164608226</v>
@@ -5039,22 +5039,22 @@
         <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020973</v>
+        <v>60.75260108020984</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326558</v>
+        <v>226.937268332656</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550287</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P11" t="n">
         <v>1477.958695736267</v>
@@ -5066,25 +5066,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T11" t="n">
-        <v>1365.072875059107</v>
+        <v>1431.61109704774</v>
       </c>
       <c r="U11" t="n">
-        <v>1244.275983741029</v>
+        <v>1310.814205729661</v>
       </c>
       <c r="V11" t="n">
-        <v>1046.260168147673</v>
+        <v>1112.798390136305</v>
       </c>
       <c r="W11" t="n">
-        <v>826.5385846277733</v>
+        <v>893.076806616406</v>
       </c>
       <c r="X11" t="n">
-        <v>826.5385846277733</v>
+        <v>893.076806616406</v>
       </c>
       <c r="Y11" t="n">
-        <v>826.5385846277733</v>
+        <v>635.9845463908091</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298.648098156887</v>
+        <v>564.7422416573166</v>
       </c>
       <c r="C12" t="n">
-        <v>257.2421406259747</v>
+        <v>523.3362841264044</v>
       </c>
       <c r="D12" t="n">
-        <v>241.3548027149382</v>
+        <v>374.4018744651531</v>
       </c>
       <c r="E12" t="n">
-        <v>82.11734770948274</v>
+        <v>348.2114912099124</v>
       </c>
       <c r="F12" t="n">
-        <v>35.8465602427371</v>
+        <v>334.7240049870121</v>
       </c>
       <c r="G12" t="n">
-        <v>30.433907073934</v>
+        <v>196.2642800679942</v>
       </c>
       <c r="H12" t="n">
-        <v>30.433907073934</v>
+        <v>85.51340455190375</v>
       </c>
       <c r="I12" t="n">
         <v>30.433907073934</v>
@@ -5121,19 +5121,19 @@
         <v>54.7981338372213</v>
       </c>
       <c r="K12" t="n">
-        <v>54.7981338372213</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>342.4531504565509</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M12" t="n">
-        <v>719.0727504964841</v>
+        <v>729.7925734439825</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211015</v>
+        <v>1106.412173483916</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P12" t="n">
         <v>1418.383708616427</v>
@@ -5148,22 +5148,22 @@
         <v>1402.023135948102</v>
       </c>
       <c r="T12" t="n">
-        <v>1200.92926656125</v>
+        <v>1333.976338311464</v>
       </c>
       <c r="U12" t="n">
-        <v>972.7234838567418</v>
+        <v>1105.770555606957</v>
       </c>
       <c r="V12" t="n">
-        <v>737.5713756249991</v>
+        <v>870.6184473752139</v>
       </c>
       <c r="W12" t="n">
-        <v>616.3810906470122</v>
+        <v>749.4281623972271</v>
       </c>
       <c r="X12" t="n">
-        <v>541.5766621916941</v>
+        <v>674.623733941909</v>
       </c>
       <c r="Y12" t="n">
-        <v>466.863435176955</v>
+        <v>599.9105069271699</v>
       </c>
     </row>
     <row r="13">
@@ -5197,25 +5197,25 @@
         <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>30.433907073934</v>
+        <v>84.15679020220479</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418627</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L13" t="n">
-        <v>327.6634469788887</v>
+        <v>394.3108706367653</v>
       </c>
       <c r="M13" t="n">
-        <v>532.1693508240803</v>
+        <v>598.8167744819569</v>
       </c>
       <c r="N13" t="n">
-        <v>740.3477848986207</v>
+        <v>676.5957735341119</v>
       </c>
       <c r="O13" t="n">
-        <v>926.5724189269731</v>
+        <v>862.8204075624643</v>
       </c>
       <c r="P13" t="n">
-        <v>1081.219273571223</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571223</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>548.7492214112107</v>
+        <v>1037.419732594812</v>
       </c>
       <c r="C14" t="n">
-        <v>548.7492214112107</v>
+        <v>801.504287404615</v>
       </c>
       <c r="D14" t="n">
-        <v>548.7492214112107</v>
+        <v>576.2856605480792</v>
       </c>
       <c r="E14" t="n">
-        <v>548.7492214112107</v>
+        <v>323.5444797000498</v>
       </c>
       <c r="F14" t="n">
-        <v>548.7492214112107</v>
+        <v>323.5444797000498</v>
       </c>
       <c r="G14" t="n">
-        <v>262.8052637298034</v>
+        <v>295.1224403037687</v>
       </c>
       <c r="H14" t="n">
-        <v>58.13758507211722</v>
+        <v>90.45476164608228</v>
       </c>
       <c r="I14" t="n">
         <v>30.433907073934</v>
@@ -5279,13 +5279,13 @@
         <v>60.75260108020984</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326558</v>
+        <v>226.937268332656</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550287</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N14" t="n">
         <v>1084.01979112136</v>
@@ -5306,22 +5306,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1365.072875059107</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="U14" t="n">
-        <v>1244.275983741029</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="V14" t="n">
-        <v>1046.260168147673</v>
+        <v>1257.141316114711</v>
       </c>
       <c r="W14" t="n">
-        <v>1046.260168147673</v>
+        <v>1037.419732594812</v>
       </c>
       <c r="X14" t="n">
-        <v>805.8414816368077</v>
+        <v>1037.419732594812</v>
       </c>
       <c r="Y14" t="n">
-        <v>548.7492214112107</v>
+        <v>1037.419732594812</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>745.9716987092579</v>
+        <v>830.8363851577459</v>
       </c>
       <c r="C15" t="n">
-        <v>704.5657411783457</v>
+        <v>789.4304276268336</v>
       </c>
       <c r="D15" t="n">
-        <v>555.6313315170944</v>
+        <v>666.3822070331848</v>
       </c>
       <c r="E15" t="n">
-        <v>396.3938765116388</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F15" t="n">
-        <v>249.8593185385238</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G15" t="n">
-        <v>111.399593619506</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H15" t="n">
         <v>111.399593619506</v>
@@ -5355,25 +5355,25 @@
         <v>30.433907073934</v>
       </c>
       <c r="J15" t="n">
-        <v>54.7981338372213</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867617</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M15" t="n">
-        <v>873.0305803211015</v>
+        <v>694.7085237331968</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211015</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O15" t="n">
-        <v>1185.002115453613</v>
+        <v>1383.299658905642</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
@@ -5385,22 +5385,22 @@
         <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1249.111651862976</v>
+        <v>1333.976338311464</v>
       </c>
       <c r="U15" t="n">
-        <v>1153.952940908683</v>
+        <v>1238.817627357171</v>
       </c>
       <c r="V15" t="n">
-        <v>1051.847904427155</v>
+        <v>1136.712590875643</v>
       </c>
       <c r="W15" t="n">
-        <v>930.6576194491684</v>
+        <v>1015.522305897656</v>
       </c>
       <c r="X15" t="n">
-        <v>855.8531909938503</v>
+        <v>940.7178774423382</v>
       </c>
       <c r="Y15" t="n">
-        <v>781.1399639791111</v>
+        <v>866.0046504275991</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858028</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G16" t="n">
-        <v>76.3705604294679</v>
+        <v>76.37056042946784</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184307</v>
+        <v>47.57254097184304</v>
       </c>
       <c r="I16" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220476</v>
+        <v>84.15679020220479</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L16" t="n">
         <v>409.2216288383615</v>
       </c>
       <c r="M16" t="n">
-        <v>613.727532683553</v>
+        <v>613.7275326835531</v>
       </c>
       <c r="N16" t="n">
-        <v>740.3477848986209</v>
+        <v>821.9059667580935</v>
       </c>
       <c r="O16" t="n">
-        <v>926.5724189269733</v>
+        <v>877.7311657640604</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571223</v>
+        <v>1032.37802040831</v>
       </c>
       <c r="Q16" t="n">
         <v>1081.219273571223</v>
@@ -5461,25 +5461,25 @@
         <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372717</v>
@@ -5531,7 +5531,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q17" t="n">
         <v>1521.6953536967</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>659.5933589948828</v>
+        <v>364.1243913605165</v>
       </c>
       <c r="C18" t="n">
-        <v>485.1403297137558</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="D18" t="n">
-        <v>336.2059200525046</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E18" t="n">
-        <v>176.968465047049</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F18" t="n">
         <v>30.433907073934</v>
@@ -5601,10 +5601,10 @@
         <v>510.7163377867617</v>
       </c>
       <c r="M18" t="n">
-        <v>808.3825154136798</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="N18" t="n">
-        <v>1185.002115453613</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O18" t="n">
         <v>1185.002115453613</v>
@@ -5619,25 +5619,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1349.887998633125</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T18" t="n">
-        <v>1349.887998633125</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U18" t="n">
-        <v>1121.682215928617</v>
+        <v>1437.340992311015</v>
       </c>
       <c r="V18" t="n">
-        <v>1121.682215928617</v>
+        <v>1202.188884079273</v>
       </c>
       <c r="W18" t="n">
-        <v>867.4448592004156</v>
+        <v>947.9515273510713</v>
       </c>
       <c r="X18" t="n">
-        <v>659.5933589948828</v>
+        <v>740.1000271455384</v>
       </c>
       <c r="Y18" t="n">
-        <v>659.5933589948828</v>
+        <v>532.3397283805846</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G19" t="n">
-        <v>43.22876948346777</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H19" t="n">
-        <v>43.22876948346777</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I19" t="n">
-        <v>43.22876948346777</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J19" t="n">
         <v>30.433907073934</v>
@@ -5710,13 +5710,13 @@
         <v>262.3292540627274</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L20" t="n">
         <v>485.3806706550283</v>
@@ -5768,7 +5768,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
         <v>1521.6953536967</v>
@@ -5789,7 +5789,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
         <v>1169.663137131896</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.433907073934</v>
+        <v>839.0706050195936</v>
       </c>
       <c r="C21" t="n">
-        <v>30.433907073934</v>
+        <v>664.6175757384666</v>
       </c>
       <c r="D21" t="n">
-        <v>30.433907073934</v>
+        <v>515.6831660772153</v>
       </c>
       <c r="E21" t="n">
-        <v>30.433907073934</v>
+        <v>356.4457110717598</v>
       </c>
       <c r="F21" t="n">
-        <v>30.433907073934</v>
+        <v>209.9111530986448</v>
       </c>
       <c r="G21" t="n">
-        <v>30.433907073934</v>
+        <v>71.45142817962693</v>
       </c>
       <c r="H21" t="n">
-        <v>30.433907073934</v>
+        <v>71.45142817962693</v>
       </c>
       <c r="I21" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K21" t="n">
-        <v>65.51795678471973</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>353.1729734040493</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M21" t="n">
-        <v>729.7925734439825</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="N21" t="n">
-        <v>1106.412173483916</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O21" t="n">
-        <v>1418.383708616427</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P21" t="n">
         <v>1418.383708616427</v>
@@ -5856,25 +5856,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1364.734823095725</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1163.640953708873</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U21" t="n">
-        <v>935.435171004365</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="V21" t="n">
-        <v>700.2830627726223</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="W21" t="n">
-        <v>446.0457060444207</v>
+        <v>1422.897741010148</v>
       </c>
       <c r="X21" t="n">
-        <v>238.1942058388879</v>
+        <v>1215.046240804616</v>
       </c>
       <c r="Y21" t="n">
-        <v>30.433907073934</v>
+        <v>1007.285942039662</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.6893458703303</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="C22" t="n">
-        <v>108.6673035580833</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="D22" t="n">
-        <v>108.6673035580833</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="E22" t="n">
-        <v>108.6673035580833</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J22" t="n">
         <v>30.433907073934</v>
@@ -5935,25 +5935,25 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681117</v>
+        <v>291.2924708696258</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681117</v>
+        <v>291.2924708696258</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240507</v>
+        <v>241.8709891255648</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627274</v>
+        <v>226.9637627642414</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6893458703303</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="X22" t="n">
-        <v>212.6893458703303</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.6893458703303</v>
+        <v>177.3238545718444</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C23" t="n">
         <v>743.2932336852421</v>
@@ -5972,7 +5972,7 @@
         <v>624.8047969230552</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693746</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F23" t="n">
         <v>307.5851632243305</v>
@@ -5996,16 +5996,16 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241028</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
         <v>1521.6953536967</v>
@@ -6020,7 +6020,7 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V23" t="n">
         <v>1416.343026973963</v>
@@ -6032,7 +6032,7 @@
         <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>878.4491320886491</v>
+        <v>879.0187704594726</v>
       </c>
       <c r="C24" t="n">
-        <v>703.9961028075221</v>
+        <v>704.5657411783457</v>
       </c>
       <c r="D24" t="n">
-        <v>555.0616931462708</v>
+        <v>555.6313315170944</v>
       </c>
       <c r="E24" t="n">
-        <v>395.8242381408153</v>
+        <v>396.3938765116389</v>
       </c>
       <c r="F24" t="n">
-        <v>249.2896801677003</v>
+        <v>249.8593185385239</v>
       </c>
       <c r="G24" t="n">
-        <v>222.1504691355965</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H24" t="n">
         <v>111.399593619506</v>
@@ -6069,49 +6069,49 @@
         <v>54.79813383722131</v>
       </c>
       <c r="K24" t="n">
-        <v>168.8296018649925</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>456.484618484322</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M24" t="n">
-        <v>833.1042185242553</v>
+        <v>873.0305803211018</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.723818564189</v>
+        <v>873.0305803211018</v>
       </c>
       <c r="O24" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893787</v>
+        <v>1477.306001333665</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197888</v>
+        <v>1477.306001333665</v>
       </c>
       <c r="T24" t="n">
-        <v>1268.976064197888</v>
+        <v>1477.306001333665</v>
       </c>
       <c r="U24" t="n">
-        <v>1268.976064197888</v>
+        <v>1477.306001333665</v>
       </c>
       <c r="V24" t="n">
-        <v>1268.976064197888</v>
+        <v>1477.306001333665</v>
       </c>
       <c r="W24" t="n">
-        <v>1254.51596931425</v>
+        <v>1462.845906450027</v>
       </c>
       <c r="X24" t="n">
-        <v>1046.664469108717</v>
+        <v>1254.994406244494</v>
       </c>
       <c r="Y24" t="n">
-        <v>1046.664469108717</v>
+        <v>1047.234107479541</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6166,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681117</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V25" t="n">
         <v>80.07381526633108</v>
@@ -6218,7 +6218,7 @@
         <v>282.9894504754848</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450499</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906317</v>
@@ -6230,10 +6230,10 @@
         <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
         <v>1851.630069864826</v>
@@ -6245,7 +6245,7 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
@@ -6260,10 +6260,10 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953606</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>769.3395489225497</v>
+        <v>617.7798920756286</v>
       </c>
       <c r="C27" t="n">
-        <v>594.8865196414228</v>
+        <v>443.3268627945016</v>
       </c>
       <c r="D27" t="n">
-        <v>445.9521099801715</v>
+        <v>294.3924531332503</v>
       </c>
       <c r="E27" t="n">
-        <v>286.714654974716</v>
+        <v>135.1549981277948</v>
       </c>
       <c r="F27" t="n">
-        <v>140.180097001601</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
         <v>55.32608743906317</v>
@@ -6330,16 +6330,16 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1817.176831423646</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1616.082962036793</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U27" t="n">
-        <v>1539.436836179206</v>
+        <v>1690.996493026128</v>
       </c>
       <c r="V27" t="n">
-        <v>1304.284727947464</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W27" t="n">
         <v>1201.607028066183</v>
@@ -6348,7 +6348,7 @@
         <v>993.7555278606505</v>
       </c>
       <c r="Y27" t="n">
-        <v>937.5548859426178</v>
+        <v>785.9952290956967</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209086</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992289</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992289</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992289</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1931552206159</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6695510182105</v>
+        <v>280.917092311768</v>
       </c>
       <c r="L28" t="n">
-        <v>210.1018117640531</v>
+        <v>341.3493530576106</v>
       </c>
       <c r="M28" t="n">
-        <v>432.7519002625266</v>
+        <v>423.1868200863595</v>
       </c>
       <c r="N28" t="n">
-        <v>659.074518990349</v>
+        <v>500.9658191385144</v>
       </c>
       <c r="O28" t="n">
-        <v>714.8997179963159</v>
+        <v>556.7910181444813</v>
       </c>
       <c r="P28" t="n">
-        <v>739.1471376181798</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>803.7381617787643</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438597</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426405</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>517.6229363009372</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419715</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>276.6405917519321</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>200.210697700836</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9777754042271</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450497</v>
+        <v>96.83435691450499</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209085</v>
+        <v>100.8889674209086</v>
       </c>
       <c r="C31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998152</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900452</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905573</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K31" t="n">
-        <v>280.917092311768</v>
+        <v>279.5704827418266</v>
       </c>
       <c r="L31" t="n">
-        <v>489.8929727332781</v>
+        <v>340.0027434876692</v>
       </c>
       <c r="M31" t="n">
-        <v>581.2955199381937</v>
+        <v>562.6528319861427</v>
       </c>
       <c r="N31" t="n">
-        <v>659.0745189903487</v>
+        <v>640.4318310382977</v>
       </c>
       <c r="O31" t="n">
-        <v>714.8997179963155</v>
+        <v>696.2570300442645</v>
       </c>
       <c r="P31" t="n">
-        <v>739.1471376181795</v>
+        <v>821.0433336359706</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359703</v>
+        <v>821.0433336359706</v>
       </c>
       <c r="R31" t="n">
-        <v>803.7381617787639</v>
+        <v>803.7381617787643</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438594</v>
+        <v>732.9793242438597</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426403</v>
+        <v>655.2620230426405</v>
       </c>
       <c r="U31" t="n">
-        <v>517.622936300937</v>
+        <v>517.6229363009372</v>
       </c>
       <c r="V31" t="n">
-        <v>414.4981049419714</v>
+        <v>414.4981049419715</v>
       </c>
       <c r="W31" t="n">
-        <v>276.640591751932</v>
+        <v>276.6405917519321</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2106977008359</v>
+        <v>200.210697700836</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.977775404227</v>
+        <v>130.9777754042271</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
@@ -6683,7 +6683,7 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F32" t="n">
         <v>550.4208230601855</v>
@@ -6692,7 +6692,7 @@
         <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450497</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I32" t="n">
         <v>55.32608743906317</v>
@@ -6704,13 +6704,13 @@
         <v>548.9166880491198</v>
       </c>
       <c r="L32" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O32" t="n">
         <v>2233.040522606063</v>
@@ -6734,13 +6734,13 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y32" t="n">
         <v>1703.224751824715</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>230.3230605788729</v>
+        <v>684.485539360012</v>
       </c>
       <c r="C33" t="n">
-        <v>143.9695721431694</v>
+        <v>510.032510078885</v>
       </c>
       <c r="D33" t="n">
-        <v>143.9695721431694</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="E33" t="n">
-        <v>136.2917739846351</v>
+        <v>201.8606454121782</v>
       </c>
       <c r="F33" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G33" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
         <v>55.32608743906317</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1901.221085316631</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S33" t="n">
-        <v>1732.839313620732</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T33" t="n">
-        <v>1531.74544423388</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U33" t="n">
-        <v>1303.539661529372</v>
+        <v>1757.702140310511</v>
       </c>
       <c r="V33" t="n">
-        <v>1068.387553297629</v>
+        <v>1522.550032078768</v>
       </c>
       <c r="W33" t="n">
-        <v>814.1501965694276</v>
+        <v>1268.312675350567</v>
       </c>
       <c r="X33" t="n">
-        <v>606.2986963638948</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y33" t="n">
-        <v>398.5383975989409</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="34">
@@ -6862,16 +6862,16 @@
         <v>59.15979528460636</v>
       </c>
       <c r="L34" t="n">
-        <v>119.592056030449</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M34" t="n">
-        <v>193.6985248532551</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N34" t="n">
-        <v>361.9872796390137</v>
+        <v>568.564763256745</v>
       </c>
       <c r="O34" t="n">
-        <v>566.356098320648</v>
+        <v>624.3899622627118</v>
       </c>
       <c r="P34" t="n">
         <v>739.1471376181795</v>
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810911</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852431</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230561</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693754</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243314</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372717</v>
       </c>
       <c r="H35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020984</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
       </c>
       <c r="O35" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
         <v>1521.6953536967</v>
@@ -6962,25 +6962,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548414</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>220.272970041693</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C36" t="n">
-        <v>45.81994076056603</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D36" t="n">
-        <v>30.433907073934</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E36" t="n">
-        <v>30.433907073934</v>
+        <v>176.9684650470491</v>
       </c>
       <c r="F36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="G36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="H36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="K36" t="n">
-        <v>30.433907073934</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0889236932636</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M36" t="n">
-        <v>694.7085237331968</v>
+        <v>862.971711063408</v>
       </c>
       <c r="N36" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211027</v>
       </c>
       <c r="O36" t="n">
-        <v>1383.299658905642</v>
+        <v>1185.002115453614</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616428</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="U36" t="n">
-        <v>1293.489570992192</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="V36" t="n">
-        <v>1058.337462760449</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="W36" t="n">
-        <v>804.1001060322478</v>
+        <v>1243.420494985437</v>
       </c>
       <c r="X36" t="n">
-        <v>596.248605826715</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y36" t="n">
-        <v>388.4883070617611</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="C37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="D37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="E37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="F37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="G37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="H37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="I37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="J37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947721</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402809</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462478</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681117</v>
+        <v>258.657325847454</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681117</v>
+        <v>222.6359198558647</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681117</v>
+        <v>222.6359198558647</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681117</v>
+        <v>222.6359198558647</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240507</v>
+        <v>173.2144381118037</v>
       </c>
       <c r="V37" t="n">
-        <v>80.07381526633108</v>
+        <v>158.3072117504804</v>
       </c>
       <c r="W37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="X37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.433907073934</v>
+        <v>108.6673035580833</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810903</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852422</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230553</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693746</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H38" t="n">
         <v>30.433907073934</v>
@@ -7172,13 +7172,13 @@
         <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020984</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M38" t="n">
         <v>789.5552979241023</v>
@@ -7190,7 +7190,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q38" t="n">
         <v>1521.6953536967</v>
@@ -7211,10 +7211,10 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
         <v>1019.301067000648</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220.272970041693</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C39" t="n">
-        <v>45.81994076056603</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D39" t="n">
-        <v>30.433907073934</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E39" t="n">
-        <v>30.433907073934</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F39" t="n">
         <v>30.433907073934</v>
@@ -7254,19 +7254,19 @@
         <v>30.433907073934</v>
       </c>
       <c r="K39" t="n">
-        <v>168.8296018649924</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L39" t="n">
-        <v>456.484618484322</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M39" t="n">
-        <v>833.1042185242552</v>
+        <v>694.7085237331968</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.723818564188</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O39" t="n">
-        <v>1521.6953536967</v>
+        <v>1383.299658905642</v>
       </c>
       <c r="P39" t="n">
         <v>1521.6953536967</v>
@@ -7284,19 +7284,19 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U39" t="n">
-        <v>1293.489570992192</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V39" t="n">
-        <v>1058.337462760449</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="W39" t="n">
-        <v>804.1001060322478</v>
+        <v>1243.420494985437</v>
       </c>
       <c r="X39" t="n">
-        <v>596.248605826715</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y39" t="n">
-        <v>388.4883070617611</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>212.6893458703305</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="C40" t="n">
-        <v>212.6893458703305</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="D40" t="n">
-        <v>212.6893458703305</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="E40" t="n">
-        <v>64.77625228793735</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F40" t="n">
-        <v>64.77625228793735</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G40" t="n">
         <v>30.433907073934</v>
@@ -7363,19 +7363,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240508</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627275</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703305</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X40" t="n">
-        <v>212.6893458703305</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.6893458703305</v>
+        <v>212.6893458703303</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829039</v>
+        <v>976.4306445829034</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416673</v>
+        <v>830.5994560416667</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340918</v>
+        <v>695.4650858340915</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350227</v>
+        <v>532.8081616350225</v>
       </c>
       <c r="F41" t="n">
         <v>344.9535852445902</v>
@@ -7442,19 +7442,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.87891655733</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
         <v>1306.907159824487</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.2213071572123</v>
+        <v>663.6699141243657</v>
       </c>
       <c r="C42" t="n">
-        <v>511.2213071572123</v>
+        <v>489.2168848432387</v>
       </c>
       <c r="D42" t="n">
-        <v>511.2213071572123</v>
+        <v>340.2824751819874</v>
       </c>
       <c r="E42" t="n">
-        <v>511.2213071572123</v>
+        <v>181.0450201765319</v>
       </c>
       <c r="F42" t="n">
-        <v>364.6867491840973</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G42" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670419</v>
       </c>
       <c r="K42" t="n">
-        <v>34.51046220341689</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>322.1654788227464</v>
+        <v>514.7928929162446</v>
       </c>
       <c r="M42" t="n">
-        <v>709.8245370472091</v>
+        <v>902.4519511407073</v>
       </c>
       <c r="N42" t="n">
-        <v>1123.450790414802</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1435.422325547313</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1668.803918710127</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
@@ -7518,22 +7518,22 @@
         <v>1725.523110170844</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.429240783991</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U42" t="n">
-        <v>1376.677609342757</v>
+        <v>1513.75518667569</v>
       </c>
       <c r="V42" t="n">
-        <v>1141.525501111015</v>
+        <v>1278.603078443947</v>
       </c>
       <c r="W42" t="n">
-        <v>887.2881443828132</v>
+        <v>1247.497050114921</v>
       </c>
       <c r="X42" t="n">
-        <v>679.4366441772804</v>
+        <v>1039.645549909388</v>
       </c>
       <c r="Y42" t="n">
-        <v>679.4366441772804</v>
+        <v>831.8852511444338</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="D43" t="n">
         <v>34.51046220341689</v>
@@ -7594,25 +7594,25 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4207309851712</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T43" t="n">
-        <v>203.2751013362059</v>
+        <v>324.5888876486294</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>258.52147245918</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524682</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225914</v>
+        <v>160.6824710146826</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829037</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416671</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340917</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350227</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445902</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
@@ -7646,31 +7646,31 @@
         <v>63.97560257890038</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517594</v>
+        <v>139.987613209413</v>
       </c>
       <c r="K44" t="n">
-        <v>260.478963837622</v>
+        <v>306.172280461859</v>
       </c>
       <c r="L44" t="n">
-        <v>518.9223661599947</v>
+        <v>564.6156827842317</v>
       </c>
       <c r="M44" t="n">
-        <v>823.0969934290687</v>
+        <v>868.7903100533057</v>
       </c>
       <c r="N44" t="n">
-        <v>1117.561486626325</v>
+        <v>1163.254803250562</v>
       </c>
       <c r="O44" t="n">
-        <v>1350.428319691895</v>
+        <v>1396.121636316132</v>
       </c>
       <c r="P44" t="n">
-        <v>1580.271176436057</v>
+        <v>1557.19370786547</v>
       </c>
       <c r="Q44" t="n">
-        <v>1624.00783439649</v>
+        <v>1600.930365825903</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170844</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
@@ -7682,10 +7682,10 @@
         <v>1694.810475501726</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
         <v>1306.907159824487</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>744.6356006699376</v>
+        <v>663.6699141243657</v>
       </c>
       <c r="C45" t="n">
-        <v>570.1825713888106</v>
+        <v>489.2168848432387</v>
       </c>
       <c r="D45" t="n">
-        <v>421.2481617275594</v>
+        <v>340.2824751819874</v>
       </c>
       <c r="E45" t="n">
-        <v>262.0107067221039</v>
+        <v>181.0450201765319</v>
       </c>
       <c r="F45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670419</v>
       </c>
       <c r="K45" t="n">
         <v>91.22965366413371</v>
@@ -7758,19 +7758,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U45" t="n">
-        <v>1649.636864600369</v>
+        <v>1568.671178054797</v>
       </c>
       <c r="V45" t="n">
-        <v>1414.484756368626</v>
+        <v>1333.519069823054</v>
       </c>
       <c r="W45" t="n">
-        <v>1160.247399640424</v>
+        <v>1079.281713094852</v>
       </c>
       <c r="X45" t="n">
-        <v>952.3958994348916</v>
+        <v>871.4302128893196</v>
       </c>
       <c r="Y45" t="n">
-        <v>744.6356006699376</v>
+        <v>663.6699141243657</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="E46" t="n">
         <v>34.51046220341689</v>
@@ -7831,25 +7831,25 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4207309851712</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2751013362059</v>
+        <v>324.5888876486294</v>
       </c>
       <c r="U46" t="n">
-        <v>137.2076861467565</v>
+        <v>258.52147245918</v>
       </c>
       <c r="V46" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524682</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225914</v>
+        <v>160.6824710146826</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>295.4193843891496</v>
       </c>
       <c r="N12" t="n">
-        <v>217.0510374314575</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>82.7237856471955</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>440.1042398205828</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>61.53807801265198</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>222.5174167492746</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9176,13 +9176,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>374.8031641565206</v>
+        <v>74.13025746266388</v>
       </c>
       <c r="N18" t="n">
-        <v>441.9619164368269</v>
+        <v>427.512060370571</v>
       </c>
       <c r="O18" t="n">
-        <v>78.73955651661683</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>129.9408555788159</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868389</v>
+        <v>74.13025746266388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>427.512060370571</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>82.7237856471955</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928329</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>209.6857225656698</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868389</v>
+        <v>440.1042398205831</v>
       </c>
       <c r="N24" t="n">
-        <v>441.961916436827</v>
+        <v>61.53807801265198</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>82.7237856471955</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868391</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>71.6985520103234</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>222.5174167492746</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>234.2960526295964</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
         <v>441.9619164368269</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>82.7237856471955</v>
+        <v>222.5174167492746</v>
       </c>
       <c r="Q39" t="n">
         <v>105.7220906850686</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>237.7061443303677</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>163.0142032716511</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>151.7945341140998</v>
+        <v>127.1842040501732</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.5560665928913</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
         <v>222.9664405879703</v>
@@ -23267,10 +23267,10 @@
         <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>220.7904777874217</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874612</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>254.9466991022748</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.99400480822542</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>81927.63387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.63387170379</v>
       </c>
       <c r="D2" t="n">
-        <v>81927.6338717038</v>
+        <v>81927.63387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>70304.02178316821</v>
+        <v>70304.02178316822</v>
       </c>
       <c r="F2" t="n">
-        <v>70304.02178316828</v>
+        <v>70304.02178316824</v>
       </c>
       <c r="G2" t="n">
         <v>82104.17698642841</v>
@@ -26335,25 +26335,25 @@
         <v>82104.17698642839</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642825</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472424</v>
+        <v>84530.31055472423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>84530.31055472424</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239518</v>
+        <v>87131.09894239527</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510447</v>
+        <v>34584.19673510455</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,28 +26430,28 @@
         <v>310803.6100166999</v>
       </c>
       <c r="G4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185456</v>
       </c>
       <c r="H4" t="n">
         <v>377919.8023185457</v>
       </c>
       <c r="I4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="J4" t="n">
+        <v>376828.4269773418</v>
+      </c>
+      <c r="K4" t="n">
         <v>376828.4269773417</v>
-      </c>
-      <c r="K4" t="n">
-        <v>376828.4269773418</v>
       </c>
       <c r="L4" t="n">
         <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
+        <v>377919.8023185457</v>
+      </c>
+      <c r="N4" t="n">
         <v>377919.8023185456</v>
-      </c>
-      <c r="N4" t="n">
-        <v>377919.8023185457</v>
       </c>
       <c r="O4" t="n">
         <v>376989.2813831306</v>
@@ -26500,7 +26500,7 @@
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431454</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431453</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254125</v>
       </c>
       <c r="C6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254125</v>
       </c>
       <c r="D6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254125</v>
       </c>
       <c r="E6" t="n">
-        <v>-596628.9365193051</v>
+        <v>-596923.9403993866</v>
       </c>
       <c r="F6" t="n">
-        <v>-277422.7916003147</v>
+        <v>-277717.7954803964</v>
       </c>
       <c r="G6" t="n">
         <v>-426152.112601156</v>
@@ -26540,22 +26540,22 @@
         <v>-341621.8020464318</v>
       </c>
       <c r="I6" t="n">
-        <v>-341621.8020464318</v>
+        <v>-341621.8020464319</v>
       </c>
       <c r="J6" t="n">
         <v>-469022.3397677353</v>
       </c>
       <c r="K6" t="n">
-        <v>-352106.2816065248</v>
+        <v>-352106.2816065247</v>
       </c>
       <c r="L6" t="n">
-        <v>-436636.592161249</v>
+        <v>-436636.5921612491</v>
       </c>
       <c r="M6" t="n">
-        <v>-428752.900988827</v>
+        <v>-428752.9009888272</v>
       </c>
       <c r="N6" t="n">
-        <v>-341621.8020464319</v>
+        <v>-341621.8020464318</v>
       </c>
       <c r="O6" t="n">
         <v>-376988.246835496</v>
@@ -26719,7 +26719,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26820,7 +26820,7 @@
         <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241752</v>
       </c>
       <c r="N4" t="n">
         <v>380.423838424175</v>
@@ -26917,7 +26917,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>105.6628881934053</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.3811720850467</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>87.33542894766589</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411207</v>
+        <v>27.90169797411215</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006033</v>
+        <v>69.27158386006062</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>105.6628881934053</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.3811720850467</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
-        <v>99.26113280130569</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.15602968011626</v>
+        <v>25.62732717692621</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28269,19 +28269,19 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45106251930777</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>103.600137667862</v>
+        <v>116.6552291119083</v>
       </c>
       <c r="M13" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>131.7166010327126</v>
@@ -28290,7 +28290,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.32062995745122</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
         <v>131.7166010327126</v>
@@ -28409,7 +28409,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.62732717692644</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="T15" t="n">
-        <v>47.70056144870952</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U15" t="n">
         <v>131.7166010327126</v>
@@ -28518,16 +28518,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>49.33459915445756</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.32062995745122</v>
+        <v>116.6552291119084</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
@@ -28691,16 +28691,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.102815090885</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9070497305196</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
         <v>160.2266402957612</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>64.78414873386933</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768557</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>39.54868378548026</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,19 +28928,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>94.80117130885935</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>64.26499920950327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.7659706229939</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S22" t="n">
-        <v>220.0953094380075</v>
+        <v>185.0834730525064</v>
       </c>
       <c r="T22" t="n">
         <v>226.984188467659</v>
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>110.2073087480449</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.54868378548002</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
         <v>199.0829306929842</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>167.1761804170862</v>
+        <v>54.0639259661051</v>
       </c>
       <c r="S25" t="n">
         <v>220.0953094380075</v>
@@ -29253,7 +29253,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="V25" t="n">
-        <v>56.94660481768554</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
         <v>237.3794892261179</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>66.03859081153954</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2256878830315</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,28 +29451,28 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>18.83099793136502</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>7.809089096911933</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="N28" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.044060278452</v>
@@ -29688,7 +29688,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
         <v>150.044060278452</v>
@@ -29697,11 +29697,11 @@
         <v>150.044060278452</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="M31" t="n">
-        <v>17.47078624455507</v>
-      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
@@ -29709,10 +29709,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5544282523657</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29785,7 +29785,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="O32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784524</v>
       </c>
       <c r="P32" t="n">
         <v>150.044060278452</v>
@@ -29828,16 +29828,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>87.21854543696934</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
@@ -29846,7 +29846,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>66.03859081153956</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29934,19 +29934,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N34" t="n">
-        <v>91.4239956905087</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>150.044060278452</v>
+        <v>91.42399569050875</v>
       </c>
       <c r="Q34" t="n">
         <v>150.044060278452</v>
@@ -30034,7 +30034,7 @@
         <v>118.359332514826</v>
       </c>
       <c r="S35" t="n">
-        <v>197.5894408014587</v>
+        <v>197.5894408014601</v>
       </c>
       <c r="T35" t="n">
         <v>220.9000151151833</v>
@@ -30068,13 +30068,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>132.2128922148731</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
@@ -30119,10 +30119,10 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>209.003460186194</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>167.1761804170862</v>
+        <v>131.5149884854128</v>
       </c>
       <c r="S37" t="n">
         <v>220.0953094380075</v>
@@ -30201,7 +30201,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="V37" t="n">
-        <v>56.94660481768554</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W37" t="n">
         <v>237.3794892261179</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30305,13 +30305,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>132.2128922148731</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -30356,10 +30356,10 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>209.0034601861951</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30387,13 +30387,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>111.4221262610681</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.7670488611306</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H40" t="n">
         <v>160.2266402957612</v>
@@ -30435,13 +30435,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30539,25 +30539,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,22 +30590,22 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>79.64960975064119</v>
+        <v>16.27348061725985</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.51482456891313</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30666,7 +30666,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>99.99466098870826</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
         <v>220.9000151151833</v>
@@ -30718,7 +30718,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>46.15486527700709</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>69.46543959073176</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="S44" t="n">
-        <v>197.5894408014587</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30794,7 +30794,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>150.7963417626921</v>
+        <v>70.6403120825758</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>26.33331419726994</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30903,7 +30903,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S46" t="n">
-        <v>99.99466098870826</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -35489,22 +35489,22 @@
         <v>24.61033006392657</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
+        <v>221.2891269264857</v>
+      </c>
+      <c r="N12" t="n">
         <v>380.423838424175</v>
-      </c>
-      <c r="N12" t="n">
-        <v>155.5129594188055</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3551970507805</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.26553851340484</v>
       </c>
       <c r="K13" t="n">
         <v>135.589033199928</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6428252899253</v>
+        <v>177.6979167339716</v>
       </c>
       <c r="M13" t="n">
         <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399398</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O13" t="n">
         <v>188.1056909377297</v>
@@ -35586,7 +35586,7 @@
         <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.3959710752614</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>365.973982357919</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7389829927417</v>
+        <v>139.7936311020791</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340481</v>
+        <v>54.26553851340484</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
         <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>127.8992446616848</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377297</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P16" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>49.33459915445718</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O17" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P17" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427614</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>300.6729066938567</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>380.423838424175</v>
+        <v>365.973982357919</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
         <v>235.7389829927417</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068241</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427614</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K21" t="n">
-        <v>35.43843405129872</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>380.423838424175</v>
+        <v>365.973982357919</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q21" t="n">
         <v>104.3551970507805</v>
@@ -36364,7 +36364,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515903</v>
       </c>
       <c r="N23" t="n">
         <v>297.4388820174311</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427637</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>24.61033006392657</v>
       </c>
       <c r="K24" t="n">
-        <v>115.1833010381527</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>365.9739823579192</v>
       </c>
       <c r="N24" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P26" t="n">
         <v>312.7431224494998</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362603</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809443</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914421</v>
+        <v>72.59299775914424</v>
       </c>
       <c r="K28" t="n">
-        <v>22.70343009858037</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L28" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>82.66410810984738</v>
       </c>
       <c r="N28" t="n">
-        <v>228.6087057856792</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O28" t="n">
         <v>56.38908990501706</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238788</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100076</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36984,19 +36984,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914424</v>
+        <v>72.59299775914421</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456674</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0867479005153</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M31" t="n">
-        <v>92.32580525749052</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N31" t="n">
         <v>78.56464550722721</v>
@@ -37005,10 +37005,10 @@
         <v>56.38908990501706</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238788</v>
+        <v>126.0467713047536</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100079</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770081</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362605</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,19 +37230,19 @@
         <v>3.872432167215347</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206326</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>74.85501901293544</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N34" t="n">
-        <v>169.9886411977359</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O34" t="n">
-        <v>206.4331501834691</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5364033308399</v>
+        <v>115.9163387428966</v>
       </c>
       <c r="Q34" t="n">
         <v>82.72343032100079</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.378022275413528e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241752</v>
       </c>
       <c r="N36" t="n">
-        <v>380.423838424175</v>
+        <v>10.16047399767142</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>139.7936311020791</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>139.7936311020792</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
@@ -37637,7 +37637,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>139.7936311020791</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478076</v>
@@ -37868,7 +37868,7 @@
         <v>391.5748062873361</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309015</v>
+        <v>176.1680663177157</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
@@ -37877,7 +37877,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.29211258658255</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>29.76276805604393</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068239</v>
+        <v>76.77980871768948</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38032,7 +38032,7 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>232.1645017617795</v>
+        <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
         <v>44.17844238427581</v>
@@ -38041,7 +38041,7 @@
         <v>102.5406826003574</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.31057431372459</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K45" t="n">
-        <v>57.29211258658265</v>
+        <v>32.68178252265608</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478076</v>
